--- a/data/trans_orig/P78DS1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78DS1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C1916BD-6F3A-45F1-9C37-C7014B08598D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0DD4130-191C-4E3F-9D48-C6E435BCD427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5932D691-40A6-446B-89EF-505DF00B1C25}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AB9E7E8C-C057-4ACB-A41C-4AAEE698C195}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="347">
   <si>
     <t>Población según si en los últimos 12 meses ha tenido algún retraso en el pago de recibos como la hipoteca, el alquiler, o suministros como la luz, el agua, impuestos / respuesta 1 en 2023 (Tasa respuesta: 94,89%)</t>
   </si>
@@ -74,28 +74,25 @@
     <t>97,59%</t>
   </si>
   <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
+    <t>93,55%</t>
   </si>
   <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
   </si>
   <si>
     <t>98,47%</t>
   </si>
   <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
   </si>
   <si>
     <t>Otros</t>
@@ -113,982 +110,970 @@
     <t>0,06%</t>
   </si>
   <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>Actividades extraescolares</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>Tasa de autónomos</t>
+  </si>
+  <si>
+    <t>Pagos de recibos de agua, gas, calefacción, electricidad, comunidad</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>Impuestos (IBI, los relacionados con vehículos, etc)</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>Cuotas de seguros</t>
+  </si>
+  <si>
+    <t>Cuotas de compras aplazadas</t>
+  </si>
+  <si>
+    <t>Alquiler</t>
+  </si>
+  <si>
+    <t>Hipoteca</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>Actividades extraescolares</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>Tasa de autónomos</t>
-  </si>
-  <si>
-    <t>Pagos de recibos de agua, gas, calefacción, electricidad, comunidad</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>Impuestos (IBI, los relacionados con vehículos, etc)</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>Cuotas de seguros</t>
-  </si>
-  <si>
-    <t>Cuotas de compras aplazadas</t>
-  </si>
-  <si>
-    <t>Alquiler</t>
-  </si>
-  <si>
-    <t>Hipoteca</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
     <t>0,67%</t>
   </si>
   <si>
     <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1503,7 +1488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F275AA51-3E75-4EED-8851-0BE1EDB3AC67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0542304C-2531-4F92-B159-BC593CCA30EB}">
   <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1642,13 +1627,13 @@
         <v>260452</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>831</v>
@@ -1657,19 +1642,19 @@
         <v>506851</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1678,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -1693,13 +1678,13 @@
         <v>159</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -1708,70 +1693,70 @@
         <v>159</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1780,14 +1765,14 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
@@ -1795,34 +1780,34 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -1831,13 +1816,13 @@
         <v>3384</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -1846,13 +1831,13 @@
         <v>1082</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -1861,19 +1846,19 @@
         <v>4466</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -1882,13 +1867,13 @@
         <v>792</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1897,13 +1882,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -1912,19 +1897,19 @@
         <v>792</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1933,14 +1918,14 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
@@ -1948,34 +1933,34 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1984,14 +1969,14 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
@@ -1999,34 +1984,34 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -2035,14 +2020,14 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
@@ -2050,34 +2035,34 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="7">
         <v>2</v>
@@ -2086,13 +2071,13 @@
         <v>1921</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2101,13 +2086,13 @@
         <v>518</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2116,13 +2101,13 @@
         <v>2439</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,13 +2122,13 @@
         <v>252496</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H14" s="7">
         <v>522</v>
@@ -2152,13 +2137,13 @@
         <v>262211</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M14" s="7">
         <v>842</v>
@@ -2167,18 +2152,18 @@
         <v>514707</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>10</v>
@@ -2190,13 +2175,13 @@
         <v>449783</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>641</v>
@@ -2205,13 +2190,13 @@
         <v>494106</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M15" s="7">
         <v>976</v>
@@ -2220,19 +2205,19 @@
         <v>943889</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="7">
         <v>17</v>
@@ -2241,13 +2226,13 @@
         <v>27050</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -2256,13 +2241,13 @@
         <v>13166</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -2271,19 +2256,19 @@
         <v>40216</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -2292,13 +2277,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2307,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2322,19 +2307,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -2343,13 +2328,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2358,13 +2343,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2373,19 +2358,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7">
         <v>6</v>
@@ -2394,13 +2379,13 @@
         <v>7406</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -2409,13 +2394,13 @@
         <v>7688</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -2424,19 +2409,19 @@
         <v>15094</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -2445,13 +2430,13 @@
         <v>2379</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2460,13 +2445,13 @@
         <v>1406</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2475,19 +2460,19 @@
         <v>3785</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2496,13 +2481,13 @@
         <v>1334</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -2511,13 +2496,13 @@
         <v>3769</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -2526,19 +2511,19 @@
         <v>5103</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" s="7">
         <v>3</v>
@@ -2547,13 +2532,13 @@
         <v>7811</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2562,13 +2547,13 @@
         <v>3591</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -2577,19 +2562,19 @@
         <v>11403</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="7">
         <v>3</v>
@@ -2598,13 +2583,13 @@
         <v>3968</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2613,13 +2598,13 @@
         <v>3783</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -2628,19 +2613,19 @@
         <v>7751</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -2649,13 +2634,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2664,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2679,13 +2664,13 @@
         <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2685,13 @@
         <v>499732</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H25" s="7">
         <v>681</v>
@@ -2715,13 +2700,13 @@
         <v>527509</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M25" s="7">
         <v>1048</v>
@@ -2730,18 +2715,18 @@
         <v>1027241</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>10</v>
@@ -2753,13 +2738,13 @@
         <v>302529</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H26" s="7">
         <v>486</v>
@@ -2768,13 +2753,13 @@
         <v>334958</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M26" s="7">
         <v>824</v>
@@ -2783,19 +2768,19 @@
         <v>637487</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="7">
         <v>2</v>
@@ -2804,13 +2789,13 @@
         <v>1894</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2819,13 +2804,13 @@
         <v>681</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M27" s="7">
         <v>3</v>
@@ -2834,19 +2819,19 @@
         <v>2576</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -2855,49 +2840,49 @@
         <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -2906,49 +2891,49 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="7">
         <v>2</v>
@@ -2957,13 +2942,13 @@
         <v>1609</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -2972,13 +2957,13 @@
         <v>7904</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M30" s="7">
         <v>11</v>
@@ -2987,19 +2972,19 @@
         <v>9512</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>2</v>
@@ -3008,13 +2993,13 @@
         <v>1515</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -3023,13 +3008,13 @@
         <v>675</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -3038,19 +3023,19 @@
         <v>2189</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -3059,13 +3044,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3074,13 +3059,13 @@
         <v>683</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -3089,19 +3074,19 @@
         <v>683</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -3110,13 +3095,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -3125,10 +3110,10 @@
         <v>975</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>140</v>
@@ -3140,10 +3125,10 @@
         <v>975</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>141</v>
@@ -3152,7 +3137,7 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C34" s="7">
         <v>3</v>
@@ -3167,7 +3152,7 @@
         <v>143</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -3176,10 +3161,10 @@
         <v>4309</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>146</v>
@@ -3194,7 +3179,7 @@
         <v>147</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>148</v>
@@ -3203,7 +3188,7 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3212,10 +3197,10 @@
         <v>872</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>149</v>
@@ -3227,13 +3212,13 @@
         <v>682</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -3242,13 +3227,13 @@
         <v>1554</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3248,13 @@
         <v>309650</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H36" s="7">
         <v>506</v>
@@ -3278,13 +3263,13 @@
         <v>350866</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M36" s="7">
         <v>854</v>
@@ -3293,18 +3278,18 @@
         <v>660516</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>10</v>
@@ -3316,13 +3301,13 @@
         <v>277435</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H37" s="7">
         <v>518</v>
@@ -3331,13 +3316,13 @@
         <v>353398</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M37" s="7">
         <v>769</v>
@@ -3346,19 +3331,19 @@
         <v>630832</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38" s="7">
         <v>2</v>
@@ -3367,13 +3352,13 @@
         <v>3181</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H38" s="7">
         <v>8</v>
@@ -3382,13 +3367,13 @@
         <v>4067</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M38" s="7">
         <v>10</v>
@@ -3397,19 +3382,19 @@
         <v>7248</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="7">
         <v>0</v>
@@ -3418,13 +3403,13 @@
         <v>0</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3433,13 +3418,13 @@
         <v>0</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -3448,19 +3433,19 @@
         <v>0</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="7">
         <v>0</v>
@@ -3469,13 +3454,13 @@
         <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3484,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3499,19 +3484,19 @@
         <v>0</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="7">
         <v>11</v>
@@ -3520,13 +3505,13 @@
         <v>12063</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H41" s="7">
         <v>18</v>
@@ -3535,13 +3520,13 @@
         <v>12602</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M41" s="7">
         <v>29</v>
@@ -3550,19 +3535,19 @@
         <v>24665</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="7">
         <v>2</v>
@@ -3571,13 +3556,13 @@
         <v>3359</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -3586,13 +3571,13 @@
         <v>962</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="M42" s="7">
         <v>3</v>
@@ -3601,19 +3586,19 @@
         <v>4321</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -3622,13 +3607,13 @@
         <v>1072</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -3637,13 +3622,13 @@
         <v>857</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="M43" s="7">
         <v>2</v>
@@ -3652,19 +3637,19 @@
         <v>1929</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C44" s="7">
         <v>0</v>
@@ -3673,13 +3658,13 @@
         <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -3688,13 +3673,13 @@
         <v>710</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -3703,19 +3688,19 @@
         <v>710</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" s="7">
         <v>4</v>
@@ -3724,13 +3709,13 @@
         <v>4913</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H45" s="7">
         <v>5</v>
@@ -3739,13 +3724,13 @@
         <v>3548</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M45" s="7">
         <v>9</v>
@@ -3754,19 +3739,19 @@
         <v>8461</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" s="7">
         <v>2</v>
@@ -3775,13 +3760,13 @@
         <v>2668</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -3790,13 +3775,13 @@
         <v>2476</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M46" s="7">
         <v>5</v>
@@ -3805,13 +3790,13 @@
         <v>5145</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3811,13 @@
         <v>304692</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H47" s="7">
         <v>555</v>
@@ -3841,13 +3826,13 @@
         <v>378620</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M47" s="7">
         <v>828</v>
@@ -3856,18 +3841,18 @@
         <v>683311</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>10</v>
@@ -3879,13 +3864,13 @@
         <v>191665</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H48" s="7">
         <v>476</v>
@@ -3894,13 +3879,13 @@
         <v>249513</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M48" s="7">
         <v>747</v>
@@ -3909,19 +3894,19 @@
         <v>441179</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -3930,13 +3915,13 @@
         <v>510</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="H49" s="7">
         <v>4</v>
@@ -3945,13 +3930,13 @@
         <v>2345</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M49" s="7">
         <v>5</v>
@@ -3960,19 +3945,19 @@
         <v>2855</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C50" s="7">
         <v>0</v>
@@ -3981,13 +3966,13 @@
         <v>0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -3996,10 +3981,10 @@
         <v>0</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>142</v>
@@ -4011,19 +3996,19 @@
         <v>0</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" s="7">
         <v>0</v>
@@ -4032,13 +4017,13 @@
         <v>0</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -4047,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>142</v>
@@ -4062,19 +4047,19 @@
         <v>0</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52" s="7">
         <v>0</v>
@@ -4083,13 +4068,13 @@
         <v>0</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -4098,13 +4083,13 @@
         <v>159</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -4113,19 +4098,19 @@
         <v>159</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53" s="7">
         <v>0</v>
@@ -4134,13 +4119,13 @@
         <v>0</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -4149,10 +4134,10 @@
         <v>0</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>142</v>
@@ -4164,19 +4149,19 @@
         <v>0</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C54" s="7">
         <v>0</v>
@@ -4185,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -4200,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>142</v>
@@ -4215,19 +4200,19 @@
         <v>0</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C55" s="7">
         <v>0</v>
@@ -4236,13 +4221,13 @@
         <v>0</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -4251,10 +4236,10 @@
         <v>0</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>142</v>
@@ -4266,19 +4251,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C56" s="7">
         <v>0</v>
@@ -4287,13 +4272,13 @@
         <v>0</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H56" s="7">
         <v>2</v>
@@ -4302,13 +4287,13 @@
         <v>636</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M56" s="7">
         <v>2</v>
@@ -4317,19 +4302,19 @@
         <v>636</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -4338,13 +4323,13 @@
         <v>1003</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -4353,10 +4338,10 @@
         <v>0</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>142</v>
@@ -4368,13 +4353,13 @@
         <v>1003</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4374,13 @@
         <v>193178</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H58" s="7">
         <v>483</v>
@@ -4404,13 +4389,13 @@
         <v>252653</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M58" s="7">
         <v>756</v>
@@ -4419,18 +4404,18 @@
         <v>445832</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>10</v>
@@ -4442,13 +4427,13 @@
         <v>260677</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H59" s="7">
         <v>431</v>
@@ -4457,13 +4442,13 @@
         <v>257805</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M59" s="7">
         <v>778</v>
@@ -4472,19 +4457,19 @@
         <v>518482</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C60" s="7">
         <v>0</v>
@@ -4493,13 +4478,13 @@
         <v>0</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4508,13 +4493,13 @@
         <v>0</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -4523,19 +4508,19 @@
         <v>0</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61" s="7">
         <v>0</v>
@@ -4544,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -4559,13 +4544,13 @@
         <v>0</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -4574,19 +4559,19 @@
         <v>0</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C62" s="7">
         <v>0</v>
@@ -4595,13 +4580,13 @@
         <v>0</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -4610,13 +4595,13 @@
         <v>0</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -4625,19 +4610,19 @@
         <v>0</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
@@ -4646,13 +4631,13 @@
         <v>785</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H63" s="7">
         <v>4</v>
@@ -4661,13 +4646,13 @@
         <v>3087</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>67</v>
+        <v>212</v>
       </c>
       <c r="M63" s="7">
         <v>5</v>
@@ -4676,19 +4661,19 @@
         <v>3872</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C64" s="7">
         <v>1</v>
@@ -4697,13 +4682,13 @@
         <v>935</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
@@ -4712,13 +4697,13 @@
         <v>722</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="M64" s="7">
         <v>2</v>
@@ -4727,19 +4712,19 @@
         <v>1658</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -4748,28 +4733,28 @@
         <v>1970</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G65" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="H65" s="7">
-        <v>0</v>
-      </c>
-      <c r="I65" s="7">
-        <v>0</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M65" s="7">
         <v>1</v>
@@ -4778,19 +4763,19 @@
         <v>1970</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C66" s="7">
         <v>0</v>
@@ -4799,13 +4784,13 @@
         <v>0</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H66" s="7">
         <v>1</v>
@@ -4814,13 +4799,13 @@
         <v>591</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="M66" s="7">
         <v>1</v>
@@ -4829,19 +4814,19 @@
         <v>591</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C67" s="7">
         <v>0</v>
@@ -4850,13 +4835,13 @@
         <v>0</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H67" s="7">
         <v>3</v>
@@ -4865,13 +4850,13 @@
         <v>1118</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="M67" s="7">
         <v>3</v>
@@ -4880,19 +4865,19 @@
         <v>1118</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C68" s="7">
         <v>0</v>
@@ -4901,13 +4886,13 @@
         <v>0</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -4916,13 +4901,13 @@
         <v>0</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M68" s="7">
         <v>0</v>
@@ -4931,13 +4916,13 @@
         <v>0</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4937,13 @@
         <v>264367</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H69" s="7">
         <v>440</v>
@@ -4967,13 +4952,13 @@
         <v>263324</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M69" s="7">
         <v>790</v>
@@ -4982,18 +4967,18 @@
         <v>527691</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>10</v>
@@ -5005,13 +4990,13 @@
         <v>564439</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="H70" s="7">
         <v>827</v>
@@ -5020,13 +5005,13 @@
         <v>708381</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="M70" s="7">
         <v>1366</v>
@@ -5035,19 +5020,19 @@
         <v>1272819</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C71" s="7">
         <v>2</v>
@@ -5056,13 +5041,13 @@
         <v>2301</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="H71" s="7">
         <v>10</v>
@@ -5071,13 +5056,13 @@
         <v>5758</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="M71" s="7">
         <v>12</v>
@@ -5086,19 +5071,19 @@
         <v>8059</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>213</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C72" s="7">
         <v>0</v>
@@ -5107,13 +5092,13 @@
         <v>0</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -5122,13 +5107,13 @@
         <v>0</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -5137,19 +5122,19 @@
         <v>0</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C73" s="7">
         <v>0</v>
@@ -5158,13 +5143,13 @@
         <v>0</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -5173,13 +5158,13 @@
         <v>0</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M73" s="7">
         <v>0</v>
@@ -5188,19 +5173,19 @@
         <v>0</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C74" s="7">
         <v>10</v>
@@ -5209,13 +5194,13 @@
         <v>9104</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>49</v>
+        <v>242</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="H74" s="7">
         <v>24</v>
@@ -5224,13 +5209,13 @@
         <v>22861</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M74" s="7">
         <v>34</v>
@@ -5239,19 +5224,19 @@
         <v>31966</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>252</v>
+        <v>75</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C75" s="7">
         <v>3</v>
@@ -5260,13 +5245,13 @@
         <v>3342</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="H75" s="7">
         <v>5</v>
@@ -5278,10 +5263,10 @@
         <v>142</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>254</v>
+        <v>164</v>
       </c>
       <c r="M75" s="7">
         <v>8</v>
@@ -5290,19 +5275,19 @@
         <v>6338</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>255</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C76" s="7">
         <v>0</v>
@@ -5311,13 +5296,13 @@
         <v>0</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="H76" s="7">
         <v>4</v>
@@ -5326,13 +5311,13 @@
         <v>3813</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>109</v>
+        <v>261</v>
       </c>
       <c r="M76" s="7">
         <v>4</v>
@@ -5341,19 +5326,19 @@
         <v>3813</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C77" s="7">
         <v>0</v>
@@ -5362,13 +5347,13 @@
         <v>0</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="H77" s="7">
         <v>1</v>
@@ -5377,13 +5362,13 @@
         <v>726</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="M77" s="7">
         <v>1</v>
@@ -5395,16 +5380,16 @@
         <v>143</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C78" s="7">
         <v>4</v>
@@ -5413,13 +5398,13 @@
         <v>4444</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="H78" s="7">
         <v>8</v>
@@ -5428,13 +5413,13 @@
         <v>4985</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="M78" s="7">
         <v>12</v>
@@ -5443,19 +5428,19 @@
         <v>9429</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>91</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C79" s="7">
         <v>1</v>
@@ -5464,13 +5449,13 @@
         <v>1012</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H79" s="7">
         <v>7</v>
@@ -5479,13 +5464,13 @@
         <v>4543</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M79" s="7">
         <v>8</v>
@@ -5494,13 +5479,13 @@
         <v>5555</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>260</v>
+        <v>26</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>104</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,13 +5500,13 @@
         <v>584642</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H80" s="7">
         <v>886</v>
@@ -5530,13 +5515,13 @@
         <v>754063</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M80" s="7">
         <v>1445</v>
@@ -5545,18 +5530,18 @@
         <v>1338705</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>10</v>
@@ -5568,13 +5553,13 @@
         <v>541894</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H81" s="7">
         <v>627</v>
@@ -5583,13 +5568,13 @@
         <v>515997</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M81" s="7">
         <v>1079</v>
@@ -5598,19 +5583,19 @@
         <v>1057891</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C82" s="7">
         <v>38</v>
@@ -5619,13 +5604,13 @@
         <v>40212</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H82" s="7">
         <v>60</v>
@@ -5634,13 +5619,13 @@
         <v>44906</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>275</v>
+        <v>69</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M82" s="7">
         <v>98</v>
@@ -5649,19 +5634,19 @@
         <v>85118</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C83" s="7">
         <v>0</v>
@@ -5670,13 +5655,13 @@
         <v>0</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H83" s="7">
         <v>1</v>
@@ -5685,13 +5670,13 @@
         <v>785</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>256</v>
+        <v>93</v>
       </c>
       <c r="M83" s="7">
         <v>1</v>
@@ -5703,16 +5688,16 @@
         <v>143</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C84" s="7">
         <v>6</v>
@@ -5721,13 +5706,13 @@
         <v>7171</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>280</v>
+        <v>149</v>
       </c>
       <c r="H84" s="7">
         <v>10</v>
@@ -5736,13 +5721,13 @@
         <v>7864</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>254</v>
+        <v>89</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>52</v>
+        <v>283</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="M84" s="7">
         <v>16</v>
@@ -5751,19 +5736,19 @@
         <v>15035</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>282</v>
+        <v>152</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>283</v>
+        <v>73</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C85" s="7">
         <v>164</v>
@@ -5814,7 +5799,7 @@
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C86" s="7">
         <v>16</v>
@@ -5823,13 +5808,13 @@
         <v>17514</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>101</v>
+        <v>293</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H86" s="7">
         <v>24</v>
@@ -5838,10 +5823,10 @@
         <v>19032</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>296</v>
+        <v>95</v>
       </c>
       <c r="L86" s="7" t="s">
         <v>297</v>
@@ -5853,19 +5838,19 @@
         <v>36545</v>
       </c>
       <c r="O86" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P86" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P86" s="7" t="s">
+      <c r="Q86" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q86" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C87" s="7">
         <v>1</v>
@@ -5874,13 +5859,13 @@
         <v>1191</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="H87" s="7">
         <v>0</v>
@@ -5889,13 +5874,13 @@
         <v>0</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="M87" s="7">
         <v>1</v>
@@ -5904,19 +5889,19 @@
         <v>1191</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>123</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C88" s="7">
         <v>1</v>
@@ -5925,13 +5910,13 @@
         <v>742</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="H88" s="7">
         <v>2</v>
@@ -5940,13 +5925,13 @@
         <v>1541</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="M88" s="7">
         <v>3</v>
@@ -5955,19 +5940,19 @@
         <v>2283</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C89" s="7">
         <v>28</v>
@@ -5976,13 +5961,13 @@
         <v>30217</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>302</v>
+        <v>83</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>303</v>
+        <v>72</v>
       </c>
       <c r="H89" s="7">
         <v>26</v>
@@ -5991,13 +5976,13 @@
         <v>26375</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>304</v>
+        <v>65</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M89" s="7">
         <v>54</v>
@@ -6006,19 +5991,19 @@
         <v>56592</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>69</v>
+        <v>305</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>187</v>
+        <v>306</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C90" s="7">
         <v>20</v>
@@ -6027,13 +6012,13 @@
         <v>22900</v>
       </c>
       <c r="E90" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H90" s="7">
         <v>18</v>
@@ -6042,13 +6027,13 @@
         <v>15985</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="M90" s="7">
         <v>38</v>
@@ -6057,13 +6042,13 @@
         <v>38885</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>312</v>
+        <v>83</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,13 +6063,13 @@
         <v>821284</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H91" s="7">
         <v>1007</v>
@@ -6093,13 +6078,13 @@
         <v>818962</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M91" s="7">
         <v>1733</v>
@@ -6108,13 +6093,13 @@
         <v>1640246</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,28 +6116,28 @@
         <v>2834821</v>
       </c>
       <c r="E92" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F92" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="G92" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H92" s="7">
         <v>4523</v>
       </c>
       <c r="I92" s="7">
-        <v>3174608</v>
+        <v>3174609</v>
       </c>
       <c r="J92" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K92" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="K92" s="7" t="s">
+      <c r="L92" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="L92" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M92" s="7">
         <v>7370</v>
@@ -6161,19 +6146,19 @@
         <v>6009429</v>
       </c>
       <c r="O92" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P92" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="P92" s="7" t="s">
+      <c r="Q92" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="Q92" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C93" s="7">
         <v>62</v>
@@ -6182,13 +6167,13 @@
         <v>75149</v>
       </c>
       <c r="E93" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F93" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F93" s="7" t="s">
-        <v>281</v>
-      </c>
       <c r="G93" s="7" t="s">
-        <v>323</v>
+        <v>146</v>
       </c>
       <c r="H93" s="7">
         <v>101</v>
@@ -6197,13 +6182,13 @@
         <v>71083</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>325</v>
+        <v>258</v>
       </c>
       <c r="M93" s="7">
         <v>163</v>
@@ -6212,19 +6197,19 @@
         <v>146231</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>327</v>
+        <v>149</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C94" s="7">
         <v>0</v>
@@ -6233,13 +6218,13 @@
         <v>0</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H94" s="7">
         <v>1</v>
@@ -6248,13 +6233,13 @@
         <v>785</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>89</v>
+        <v>327</v>
       </c>
       <c r="M94" s="7">
         <v>1</v>
@@ -6263,19 +6248,19 @@
         <v>785</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q94" s="7" t="s">
-        <v>301</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C95" s="7">
         <v>6</v>
@@ -6284,13 +6269,13 @@
         <v>7171</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>331</v>
+        <v>84</v>
       </c>
       <c r="H95" s="7">
         <v>10</v>
@@ -6299,13 +6284,13 @@
         <v>7864</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>232</v>
+        <v>327</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M95" s="7">
         <v>16</v>
@@ -6314,19 +6299,19 @@
         <v>15035</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>246</v>
+        <v>327</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C96" s="7">
         <v>197</v>
@@ -6335,13 +6320,13 @@
         <v>193796</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H96" s="7">
         <v>307</v>
@@ -6350,13 +6335,13 @@
         <v>241859</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K96" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M96" s="7">
         <v>504</v>
@@ -6365,19 +6350,19 @@
         <v>435655</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>340</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C97" s="7">
         <v>27</v>
@@ -6386,13 +6371,13 @@
         <v>29835</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>282</v>
+        <v>152</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>210</v>
+        <v>337</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>140</v>
+        <v>338</v>
       </c>
       <c r="H97" s="7">
         <v>34</v>
@@ -6401,13 +6386,13 @@
         <v>25792</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="M97" s="7">
         <v>61</v>
@@ -6416,19 +6401,19 @@
         <v>55628</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>51</v>
+        <v>339</v>
       </c>
       <c r="P97" s="7" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C98" s="7">
         <v>4</v>
@@ -6437,13 +6422,13 @@
         <v>5567</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>341</v>
+        <v>145</v>
       </c>
       <c r="H98" s="7">
         <v>10</v>
@@ -6452,13 +6437,13 @@
         <v>9122</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>52</v>
+        <v>283</v>
       </c>
       <c r="M98" s="7">
         <v>14</v>
@@ -6467,19 +6452,19 @@
         <v>14688</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="P98" s="7" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C99" s="7">
         <v>4</v>
@@ -6488,13 +6473,13 @@
         <v>8553</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H99" s="7">
         <v>9</v>
@@ -6503,13 +6488,13 @@
         <v>8135</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>342</v>
+        <v>51</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>344</v>
+        <v>165</v>
       </c>
       <c r="M99" s="7">
         <v>13</v>
@@ -6518,19 +6503,19 @@
         <v>16688</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P99" s="7" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="Q99" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C100" s="7">
         <v>42</v>
@@ -6539,13 +6524,13 @@
         <v>44773</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>345</v>
+        <v>235</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>346</v>
+        <v>190</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>347</v>
+        <v>148</v>
       </c>
       <c r="H100" s="7">
         <v>55</v>
@@ -6554,13 +6539,13 @@
         <v>44754</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K100" s="7" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>86</v>
+        <v>341</v>
       </c>
       <c r="M100" s="7">
         <v>97</v>
@@ -6569,19 +6554,19 @@
         <v>89527</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="P100" s="7" t="s">
-        <v>90</v>
+        <v>342</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C101" s="7">
         <v>27</v>
@@ -6590,13 +6575,13 @@
         <v>30377</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>184</v>
+        <v>343</v>
       </c>
       <c r="H101" s="7">
         <v>30</v>
@@ -6605,13 +6590,13 @@
         <v>24205</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>331</v>
+        <v>165</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>254</v>
+        <v>138</v>
       </c>
       <c r="M101" s="7">
         <v>57</v>
@@ -6620,13 +6605,13 @@
         <v>54581</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="P101" s="7" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="Q101" s="7" t="s">
-        <v>350</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,28 +6626,28 @@
         <v>3230041</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H102" s="7">
         <v>5080</v>
       </c>
       <c r="I102" s="7">
-        <v>3608207</v>
+        <v>3608208</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M102" s="7">
         <v>8296</v>
@@ -6671,18 +6656,18 @@
         <v>6838248</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P102" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78DS1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78DS1_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0DD4130-191C-4E3F-9D48-C6E435BCD427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDABAB00-89BB-4FC4-8FAB-B97747D60C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AB9E7E8C-C057-4ACB-A41C-4AAEE698C195}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F8D431F0-2BB9-4227-AED6-5DE5A54B1FD5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1488,7 +1488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0542304C-2531-4F92-B159-BC593CCA30EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C0933C-D067-4643-95FB-67552CA26848}">
   <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
